--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2613.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2613.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7881427506641657</v>
+        <v>1.297706961631775</v>
       </c>
       <c r="B1">
-        <v>1.575519011669338</v>
+        <v>2.120767831802368</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.784872055053711</v>
       </c>
       <c r="D1">
-        <v>1.795370265107311</v>
+        <v>3.374036312103271</v>
       </c>
       <c r="E1">
-        <v>0.9197412340538216</v>
+        <v>1.354151844978333</v>
       </c>
     </row>
   </sheetData>
